--- a/data/trans_orig/Q5405-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5405-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>3576</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10977</v>
+        <v>10893</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0122205240999617</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002915506687270138</v>
+        <v>0.002868284526472791</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03751727089785876</v>
+        <v>0.03723055848005485</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -765,19 +765,19 @@
         <v>4629</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1772</v>
+        <v>1781</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10226</v>
+        <v>11025</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01349704838052374</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005167606471640071</v>
+        <v>0.005192003375656821</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0298191423769701</v>
+        <v>0.03214852904806693</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -786,19 +786,19 @@
         <v>8204</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3629</v>
+        <v>3805</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15797</v>
+        <v>16244</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01290935473218924</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005710660656380189</v>
+        <v>0.00598742311047827</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02485671950499685</v>
+        <v>0.02555978555780553</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>4545</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1726</v>
+        <v>1741</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10030</v>
+        <v>10306</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01553265789555371</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.005899775866720908</v>
+        <v>0.005949167104076628</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0342810020477082</v>
+        <v>0.03522418121069438</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -836,19 +836,19 @@
         <v>7509</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3535</v>
+        <v>3650</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13931</v>
+        <v>13913</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0218953990436186</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01030802739921833</v>
+        <v>0.01064438293392625</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04062291154598163</v>
+        <v>0.04057149611671028</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>13</v>
@@ -857,19 +857,19 @@
         <v>12053</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6395</v>
+        <v>6578</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>19379</v>
+        <v>19629</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01896608338887218</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01006329355898273</v>
+        <v>0.01035062378842484</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03049273413979761</v>
+        <v>0.03088616730068099</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>284463</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>276501</v>
+        <v>277109</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>288946</v>
+        <v>289001</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9722468180044845</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9450327354300792</v>
+        <v>0.9471135026676094</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9875690313145402</v>
+        <v>0.9877583930579742</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>358</v>
@@ -907,19 +907,19 @@
         <v>330797</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>322972</v>
+        <v>322930</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>336260</v>
+        <v>335653</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9646075525758576</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9417912855075308</v>
+        <v>0.9416692290338586</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9805379718815977</v>
+        <v>0.9787692163052233</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>653</v>
@@ -928,19 +928,19 @@
         <v>615260</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>605884</v>
+        <v>605069</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>622715</v>
+        <v>622574</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9681245618789386</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9533717758095405</v>
+        <v>0.9520891426589478</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9798551392442583</v>
+        <v>0.9796346673423063</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>3669</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>975</v>
+        <v>997</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8525</v>
+        <v>9278</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01748158373623702</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.004643770588540426</v>
+        <v>0.004749126391473298</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04061869221743936</v>
+        <v>0.04420564635050402</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -1053,19 +1053,19 @@
         <v>14496</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7977</v>
+        <v>7592</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>23624</v>
+        <v>24579</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04341273841519677</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02389051915731251</v>
+        <v>0.02273684753006754</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07075068613522836</v>
+        <v>0.0736099921023961</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>16</v>
@@ -1074,19 +1074,19 @@
         <v>18165</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>9815</v>
+        <v>10315</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>28964</v>
+        <v>27995</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0334042816323098</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01804986768127758</v>
+        <v>0.01896820944507135</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05326255925710313</v>
+        <v>0.05148049681637991</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>14358</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8856</v>
+        <v>8879</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>22591</v>
+        <v>23491</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06841105997826183</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04219262099414375</v>
+        <v>0.04230554708760148</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1076359052112339</v>
+        <v>0.1119222759618223</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>10</v>
@@ -1124,19 +1124,19 @@
         <v>10257</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4567</v>
+        <v>5449</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>18140</v>
+        <v>18985</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03071655291418545</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0136765994246276</v>
+        <v>0.01631996779259325</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05432485755911309</v>
+        <v>0.05685638260380898</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>26</v>
@@ -1145,19 +1145,19 @@
         <v>24615</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>15999</v>
+        <v>16267</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>35836</v>
+        <v>35803</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0452652241775266</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02942074937846457</v>
+        <v>0.02991344311446165</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06590047565132238</v>
+        <v>0.06584044838248211</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>191856</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>183050</v>
+        <v>183115</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>198203</v>
+        <v>198047</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9141073562855011</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8721510390858133</v>
+        <v>0.8724632003762568</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9443495256268221</v>
+        <v>0.9436056816129645</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>268</v>
@@ -1195,19 +1195,19 @@
         <v>309156</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>298033</v>
+        <v>295791</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>317630</v>
+        <v>317338</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9258707086706178</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8925605052662674</v>
+        <v>0.885845942598992</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9512509232092621</v>
+        <v>0.9503768008435114</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>468</v>
@@ -1216,19 +1216,19 @@
         <v>501011</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>486450</v>
+        <v>487537</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>512749</v>
+        <v>512467</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9213304941901636</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8945539253518786</v>
+        <v>0.8965514413948875</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9429148976168781</v>
+        <v>0.9423965930135275</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>7245</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2784</v>
+        <v>2867</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14408</v>
+        <v>14412</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01441809987404169</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.005540652978728638</v>
+        <v>0.005706213084557945</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02867365366648616</v>
+        <v>0.02868307430575869</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>17</v>
@@ -1341,19 +1341,19 @@
         <v>19124</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11481</v>
+        <v>11577</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>29687</v>
+        <v>29993</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02825542475754658</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01696330761689787</v>
+        <v>0.0171040510530135</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04386157750209649</v>
+        <v>0.04431244599907519</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>24</v>
@@ -1362,19 +1362,19 @@
         <v>26369</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>17296</v>
+        <v>17891</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>38089</v>
+        <v>39753</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02235977634296704</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01466587859601042</v>
+        <v>0.01517086112667945</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03229780288102699</v>
+        <v>0.03370861545688648</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>18903</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11710</v>
+        <v>12484</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28069</v>
+        <v>28613</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03762027967193211</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02330593310157119</v>
+        <v>0.02484544981174411</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05586214034409136</v>
+        <v>0.05694494872669317</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -1412,19 +1412,19 @@
         <v>17765</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10686</v>
+        <v>10771</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>27338</v>
+        <v>27269</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02624715923202036</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01578745328979385</v>
+        <v>0.01591415225280615</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04039063373303959</v>
+        <v>0.04028819979137103</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>39</v>
@@ -1433,19 +1433,19 @@
         <v>36668</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>25873</v>
+        <v>26258</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>49635</v>
+        <v>50270</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03109288772758518</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02193919458647274</v>
+        <v>0.02226546291443803</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04208846217022089</v>
+        <v>0.04262663453013012</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>476318</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>465949</v>
+        <v>464648</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>484610</v>
+        <v>484327</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9479616204540262</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9273245961582749</v>
+        <v>0.924734930898388</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9644642018441343</v>
+        <v>0.9639002161145193</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>626</v>
@@ -1483,19 +1483,19 @@
         <v>639952</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>626865</v>
+        <v>627579</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>650695</v>
+        <v>650948</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.945497416010433</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9261617831071114</v>
+        <v>0.9272163529897057</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9613690840457205</v>
+        <v>0.9617427551384777</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1121</v>
@@ -1504,19 +1504,19 @@
         <v>1116271</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1100261</v>
+        <v>1099327</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1130373</v>
+        <v>1130302</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9465473359294477</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9329715509956085</v>
+        <v>0.9321797971421373</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9585051405879949</v>
+        <v>0.9584448090069819</v>
       </c>
     </row>
     <row r="15">
@@ -1846,19 +1846,19 @@
         <v>2995</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>967</v>
+        <v>981</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8928</v>
+        <v>8890</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009668510929421377</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00312112871415646</v>
+        <v>0.003166883377038709</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02881858492190419</v>
+        <v>0.02869877990742506</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -1867,19 +1867,19 @@
         <v>2940</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7913</v>
+        <v>7885</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.008305507932208309</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002658845864282857</v>
+        <v>0.00266067845266461</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02235415732771958</v>
+        <v>0.02227378074198962</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -1888,19 +1888,19 @@
         <v>5935</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2007</v>
+        <v>2900</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12540</v>
+        <v>13271</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.008941619455283108</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003023145015509306</v>
+        <v>0.004369053006302456</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01889246827421255</v>
+        <v>0.01999373723874035</v>
       </c>
     </row>
     <row r="5">
@@ -1917,19 +1917,19 @@
         <v>9362</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4193</v>
+        <v>4066</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17813</v>
+        <v>19083</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03022026299715794</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01353484079644182</v>
+        <v>0.01312477396891355</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05750172185374092</v>
+        <v>0.06159921502308895</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -1938,19 +1938,19 @@
         <v>10705</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5768</v>
+        <v>5776</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18733</v>
+        <v>17808</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03024016535781427</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01629282353755913</v>
+        <v>0.01631701686196424</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05291931547742509</v>
+        <v>0.05030495768880205</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>19</v>
@@ -1959,19 +1959,19 @@
         <v>20067</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>11575</v>
+        <v>11976</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>29173</v>
+        <v>29859</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03023087695494519</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01743868517601881</v>
+        <v>0.01804278388987885</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04394965903671205</v>
+        <v>0.04498273192560604</v>
       </c>
     </row>
     <row r="6">
@@ -1988,19 +1988,19 @@
         <v>297429</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>289082</v>
+        <v>287269</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>303621</v>
+        <v>303562</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9601112260734207</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9331667412729764</v>
+        <v>0.9273159009898788</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9800998526410265</v>
+        <v>0.9799079842484687</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>330</v>
@@ -2009,19 +2009,19 @@
         <v>340351</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>332288</v>
+        <v>332474</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>346290</v>
+        <v>346239</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9614543267099774</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9386762840782926</v>
+        <v>0.9392039069171313</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.978230081381999</v>
+        <v>0.9780865091823615</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>601</v>
@@ -2030,19 +2030,19 @@
         <v>637780</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>626793</v>
+        <v>626651</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>646979</v>
+        <v>646500</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9608275035897718</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.944275152173911</v>
+        <v>0.944061318890525</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9746865804660557</v>
+        <v>0.9739645820996559</v>
       </c>
     </row>
     <row r="7">
@@ -2134,19 +2134,19 @@
         <v>16214</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9529</v>
+        <v>9522</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>26098</v>
+        <v>25355</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06489465019352809</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03814004580686187</v>
+        <v>0.03811214013734742</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1044542046790373</v>
+        <v>0.1014807996437422</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>25</v>
@@ -2155,19 +2155,19 @@
         <v>28455</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>18559</v>
+        <v>19534</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>40288</v>
+        <v>42343</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0731529260537583</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0477126891893802</v>
+        <v>0.0502195519078873</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1035746905602179</v>
+        <v>0.1088575677789553</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>40</v>
@@ -2176,19 +2176,19 @@
         <v>44669</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>33399</v>
+        <v>32418</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>61806</v>
+        <v>60356</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0699230562094508</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05228172577253614</v>
+        <v>0.05074593027522238</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09674796815231494</v>
+        <v>0.09447874977847918</v>
       </c>
     </row>
     <row r="9">
@@ -2205,19 +2205,19 @@
         <v>27100</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>16734</v>
+        <v>17984</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>39690</v>
+        <v>40075</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.108465311082511</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06697708742019014</v>
+        <v>0.07197836984224243</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1588562178640643</v>
+        <v>0.1603953042952315</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>32</v>
@@ -2226,19 +2226,19 @@
         <v>35154</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>25244</v>
+        <v>24302</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>47131</v>
+        <v>47608</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0903752837814283</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06489874316055522</v>
+        <v>0.06247625938029515</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1211668019053949</v>
+        <v>0.1223911768151224</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>54</v>
@@ -2247,19 +2247,19 @@
         <v>62254</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>46359</v>
+        <v>46741</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>79988</v>
+        <v>78767</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09745042085015267</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0725683699153483</v>
+        <v>0.07316648695831224</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1252099397492337</v>
+        <v>0.123298734853775</v>
       </c>
     </row>
     <row r="10">
@@ -2276,19 +2276,19 @@
         <v>206537</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>191679</v>
+        <v>192725</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>217825</v>
+        <v>218626</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8266400387239609</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7671743712198573</v>
+        <v>0.7713578519903159</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8718196133840307</v>
+        <v>0.8750239901331482</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>293</v>
@@ -2297,19 +2297,19 @@
         <v>325370</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>307517</v>
+        <v>308498</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>338967</v>
+        <v>339473</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8364717901648134</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7905750634764599</v>
+        <v>0.7930956383591122</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8714263901213761</v>
+        <v>0.8727295827943687</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>478</v>
@@ -2318,19 +2318,19 @@
         <v>531907</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>508220</v>
+        <v>510179</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>551127</v>
+        <v>550586</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8326265229403965</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7955486315365375</v>
+        <v>0.7986145127961773</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8627138091391399</v>
+        <v>0.861866967800297</v>
       </c>
     </row>
     <row r="11">
@@ -2422,19 +2422,19 @@
         <v>19209</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11564</v>
+        <v>11868</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>30076</v>
+        <v>28999</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03432430949097351</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02066403025955053</v>
+        <v>0.02120735158087489</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05374149188419765</v>
+        <v>0.0518171831798356</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>28</v>
@@ -2443,19 +2443,19 @@
         <v>31395</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>20995</v>
+        <v>21395</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>44502</v>
+        <v>43463</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04225588818751946</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02825735605637962</v>
+        <v>0.02879605204033956</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05989701835333207</v>
+        <v>0.05849842573873892</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>46</v>
@@ -2464,19 +2464,19 @@
         <v>50604</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>36952</v>
+        <v>38376</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>66094</v>
+        <v>67782</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03884826943616802</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02836763365758283</v>
+        <v>0.02946084382348716</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05073988833633487</v>
+        <v>0.05203548415738152</v>
       </c>
     </row>
     <row r="13">
@@ -2493,19 +2493,19 @@
         <v>36462</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25069</v>
+        <v>25287</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>51609</v>
+        <v>52936</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06515289036778553</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04479538335827665</v>
+        <v>0.04518507511609017</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09221930553812853</v>
+        <v>0.0945903448280994</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>43</v>
@@ -2514,19 +2514,19 @@
         <v>45859</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33837</v>
+        <v>33010</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>61150</v>
+        <v>61037</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06172345638650364</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04554253541166191</v>
+        <v>0.04442936896667516</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08230443038332283</v>
+        <v>0.08215162156771952</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>73</v>
@@ -2535,19 +2535,19 @@
         <v>82321</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>64894</v>
+        <v>63989</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>103344</v>
+        <v>101298</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06319683312375106</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0498187105876676</v>
+        <v>0.04912367557746735</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07933591521784379</v>
+        <v>0.07776565408279731</v>
       </c>
     </row>
     <row r="14">
@@ -2564,19 +2564,19 @@
         <v>503966</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>487114</v>
+        <v>486612</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>517171</v>
+        <v>517510</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.900522800141241</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8704107597377291</v>
+        <v>0.8695131017917431</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.924119026237864</v>
+        <v>0.9247236303104305</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>623</v>
@@ -2585,19 +2585,19 @@
         <v>665721</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>647567</v>
+        <v>648182</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>682162</v>
+        <v>681602</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8960206554259769</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8715867816917258</v>
+        <v>0.8724137051188307</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9181487881306915</v>
+        <v>0.9173958451849468</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1079</v>
@@ -2606,19 +2606,19 @@
         <v>1169687</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1144721</v>
+        <v>1146537</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1191513</v>
+        <v>1191621</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8979548974400809</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8787888150770414</v>
+        <v>0.8801827171509997</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9147107254184065</v>
+        <v>0.914793215760022</v>
       </c>
     </row>
     <row r="15">
@@ -2951,16 +2951,16 @@
         <v>951</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8255</v>
+        <v>8047</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008902641068237661</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002845842583622405</v>
+        <v>0.002845719127003714</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02469196144605365</v>
+        <v>0.02406780610343646</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7322</v>
+        <v>7248</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005451255889811059</v>
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01938174783827582</v>
+        <v>0.01918764600645283</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -2990,19 +2990,19 @@
         <v>5036</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1996</v>
+        <v>1966</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12523</v>
+        <v>11487</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007071694822897741</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002802803622203783</v>
+        <v>0.002760249985911802</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01758552117243153</v>
+        <v>0.01613173866526812</v>
       </c>
     </row>
     <row r="5">
@@ -3019,19 +3019,19 @@
         <v>2796</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7248</v>
+        <v>7704</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.008362946100418074</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002587102877193752</v>
+        <v>0.002569740025625568</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02168016151199337</v>
+        <v>0.0230425496607337</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -3040,19 +3040,19 @@
         <v>6449</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1938</v>
+        <v>2719</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13361</v>
+        <v>13313</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01707103617437604</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.005131268687510464</v>
+        <v>0.007196739600455373</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03536810322253749</v>
+        <v>0.0352419715084658</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -3061,19 +3061,19 @@
         <v>9245</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4569</v>
+        <v>4491</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>17581</v>
+        <v>16921</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01298255359153665</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.006416016588752429</v>
+        <v>0.006307361757539477</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0246897718023877</v>
+        <v>0.02376298935347805</v>
       </c>
     </row>
     <row r="6">
@@ -3090,19 +3090,19 @@
         <v>328558</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>323064</v>
+        <v>322429</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>331622</v>
+        <v>332210</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9827344128313442</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9663032239415198</v>
+        <v>0.964404586780414</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9919003594645888</v>
+        <v>0.9936587033352108</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>346</v>
@@ -3111,19 +3111,19 @@
         <v>369254</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>361702</v>
+        <v>361365</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>374031</v>
+        <v>373914</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9774777079358129</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9574874302682455</v>
+        <v>0.9565947570376142</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9901240394435514</v>
+        <v>0.989814807008101</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>665</v>
@@ -3132,19 +3132,19 @@
         <v>697812</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>687303</v>
+        <v>689232</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>704087</v>
+        <v>704154</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9799457515855656</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9651885049479458</v>
+        <v>0.967897695605893</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9887586470246853</v>
+        <v>0.9888522659071677</v>
       </c>
     </row>
     <row r="7">
@@ -3236,19 +3236,19 @@
         <v>7402</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3288</v>
+        <v>3987</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13720</v>
+        <v>13790</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02880087428444424</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01279517834031754</v>
+        <v>0.01551498694788974</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05338444114100917</v>
+        <v>0.05365989053460737</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -3257,19 +3257,19 @@
         <v>13409</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6766</v>
+        <v>7216</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>23672</v>
+        <v>24054</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03350859124642601</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01690778397384314</v>
+        <v>0.01803150874308699</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05915568419915482</v>
+        <v>0.06010991928723119</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>19</v>
@@ -3278,19 +3278,19 @@
         <v>20811</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>12763</v>
+        <v>12319</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>32083</v>
+        <v>31382</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0316675465075748</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01942085448805707</v>
+        <v>0.01874543631739488</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04881980582439658</v>
+        <v>0.04775348794534146</v>
       </c>
     </row>
     <row r="9">
@@ -3307,19 +3307,19 @@
         <v>10391</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5682</v>
+        <v>5047</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16942</v>
+        <v>17363</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04043371950544437</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02210921360213231</v>
+        <v>0.01963724419278952</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06592454041747743</v>
+        <v>0.067560058672494</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>28</v>
@@ -3328,19 +3328,19 @@
         <v>35025</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>23888</v>
+        <v>24728</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>48651</v>
+        <v>48348</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08752514776504536</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05969360274042004</v>
+        <v>0.06179431728187432</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1215764927443642</v>
+        <v>0.1208178995422581</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>40</v>
@@ -3349,19 +3349,19 @@
         <v>45416</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>33648</v>
+        <v>33706</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>62059</v>
+        <v>61235</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06910912425673506</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05120158520016323</v>
+        <v>0.05129061244086249</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09443375047886683</v>
+        <v>0.09318071508075586</v>
       </c>
     </row>
     <row r="10">
@@ -3378,19 +3378,19 @@
         <v>239205</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>231226</v>
+        <v>230391</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>245423</v>
+        <v>245781</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9307654062101114</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8997172961898713</v>
+        <v>0.8964714750064889</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9549624874901946</v>
+        <v>0.956353925823439</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>263</v>
@@ -3399,19 +3399,19 @@
         <v>351735</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>336231</v>
+        <v>336804</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>363660</v>
+        <v>364550</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8789662609885286</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8402214116190669</v>
+        <v>0.8416552656094906</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9087656158105104</v>
+        <v>0.9109898884200178</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>544</v>
@@ -3420,19 +3420,19 @@
         <v>590940</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>571003</v>
+        <v>573838</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>604640</v>
+        <v>605935</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8992233292356901</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8688855918631936</v>
+        <v>0.8732001123521748</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9200709028474068</v>
+        <v>0.9220404823984205</v>
       </c>
     </row>
     <row r="11">
@@ -3524,19 +3524,19 @@
         <v>10378</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5824</v>
+        <v>5850</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17789</v>
+        <v>18011</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01755064381698297</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.009849077333354526</v>
+        <v>0.009893586704926913</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03008257111296432</v>
+        <v>0.03045904812380296</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>12</v>
@@ -3545,19 +3545,19 @@
         <v>15468</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>8379</v>
+        <v>8319</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>26428</v>
+        <v>25536</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01988399581677804</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01077150153657402</v>
+        <v>0.01069434353200324</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03397191913538247</v>
+        <v>0.03282495538924919</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>24</v>
@@ -3566,19 +3566,19 @@
         <v>25847</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>16462</v>
+        <v>16789</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>38086</v>
+        <v>38095</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01887631475042254</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01202259367414917</v>
+        <v>0.01226118890268941</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02781528697923681</v>
+        <v>0.0278217904203269</v>
       </c>
     </row>
     <row r="13">
@@ -3595,19 +3595,19 @@
         <v>13187</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7507</v>
+        <v>7404</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21499</v>
+        <v>21889</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02230127587811727</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01269450570747232</v>
+        <v>0.01252120407037397</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03635746923199851</v>
+        <v>0.03701641884682792</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>34</v>
@@ -3616,19 +3616,19 @@
         <v>41474</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28249</v>
+        <v>29411</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>55639</v>
+        <v>57116</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0533127482418017</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03631243452972932</v>
+        <v>0.03780667534125463</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07152146926473413</v>
+        <v>0.07342077288815095</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>49</v>
@@ -3637,19 +3637,19 @@
         <v>54661</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>40249</v>
+        <v>42085</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>72826</v>
+        <v>72385</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0399201381497812</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02939477049650859</v>
+        <v>0.03073576900832173</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05318620219650834</v>
+        <v>0.05286416150758023</v>
       </c>
     </row>
     <row r="14">
@@ -3666,19 +3666,19 @@
         <v>567762</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>557694</v>
+        <v>557263</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>575677</v>
+        <v>575894</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9601480803048997</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9431215933020659</v>
+        <v>0.9423929606218509</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9735331946280621</v>
+        <v>0.9738996230023994</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>609</v>
@@ -3687,19 +3687,19 @@
         <v>720989</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>703966</v>
+        <v>702674</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>735501</v>
+        <v>735218</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9268032559414202</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9049207641252602</v>
+        <v>0.9032599140659309</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9454576142147203</v>
+        <v>0.9450936788632033</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1209</v>
@@ -3708,19 +3708,19 @@
         <v>1288751</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1269661</v>
+        <v>1270290</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1307230</v>
+        <v>1305082</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9412035470997963</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9272610520910998</v>
+        <v>0.9277205169351445</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9546987407985486</v>
+        <v>0.9531303963685356</v>
       </c>
     </row>
     <row r="15">
@@ -4050,19 +4050,19 @@
         <v>1986</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5723</v>
+        <v>6478</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004877924788307229</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001111761606025601</v>
+        <v>0.001108403882248753</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01405970474649533</v>
+        <v>0.01591356331228112</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>2290</v>
+        <v>2294</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001041851789964511</v>
@@ -4083,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.005219063116412809</v>
+        <v>0.00522956632121633</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -4092,19 +4092,19 @@
         <v>2443</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>609</v>
+        <v>907</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6266</v>
+        <v>7325</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.002888105365175123</v>
+        <v>0.002888105365175124</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0007205519037969577</v>
+        <v>0.001071832111396017</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.007408657016903846</v>
+        <v>0.008659912697914687</v>
       </c>
     </row>
     <row r="5">
@@ -4121,19 +4121,19 @@
         <v>1893</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5226</v>
+        <v>5627</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.00464902047043619</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.001174645333507353</v>
+        <v>0.001175508774878469</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01283694799083423</v>
+        <v>0.01382295100293657</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -4142,19 +4142,19 @@
         <v>7390</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3827</v>
+        <v>3884</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12001</v>
+        <v>12132</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.01684334924454222</v>
+        <v>0.01684334924454223</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.008722100333157639</v>
+        <v>0.008852338824107107</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02735410431397282</v>
+        <v>0.02765331388091949</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>16</v>
@@ -4163,19 +4163,19 @@
         <v>9282</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5306</v>
+        <v>5028</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>14637</v>
+        <v>14395</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.01097437253158252</v>
+        <v>0.01097437253158253</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.006273675021839367</v>
+        <v>0.005944126721070558</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01730479893894741</v>
+        <v>0.01701948007598964</v>
       </c>
     </row>
     <row r="6">
@@ -4192,19 +4192,19 @@
         <v>403202</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>398796</v>
+        <v>398842</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>405675</v>
+        <v>405673</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9904730547412565</v>
+        <v>0.9904730547412566</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.979649884886896</v>
+        <v>0.9797621092284988</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9965487982325396</v>
+        <v>0.996543098990473</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>812</v>
@@ -4213,19 +4213,19 @@
         <v>430887</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>426084</v>
+        <v>426124</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>434687</v>
+        <v>434471</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.9821147989654931</v>
+        <v>0.9821147989654933</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9711663838802752</v>
+        <v>0.9712586019471302</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9907751565198453</v>
+        <v>0.9902836913055572</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1376</v>
@@ -4234,19 +4234,19 @@
         <v>834089</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>827890</v>
+        <v>828209</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>838713</v>
+        <v>838823</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.9861375221032423</v>
+        <v>0.9861375221032425</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9788082911711826</v>
+        <v>0.9791859825803426</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9916045311917899</v>
+        <v>0.9917344859695486</v>
       </c>
     </row>
     <row r="7">
@@ -4338,19 +4338,19 @@
         <v>4686</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2197</v>
+        <v>2203</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8589</v>
+        <v>9009</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.01514923759948684</v>
+        <v>0.01514923759948683</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.007101755876681656</v>
+        <v>0.007123836637300693</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02776709469606067</v>
+        <v>0.02912466851568826</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>46</v>
@@ -4359,19 +4359,19 @@
         <v>25053</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>18558</v>
+        <v>17894</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>33682</v>
+        <v>33613</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05402723279203926</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04002082529903732</v>
+        <v>0.03858997274147329</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0726359986157158</v>
+        <v>0.07248823196797914</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>55</v>
@@ -4380,19 +4380,19 @@
         <v>29739</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>22451</v>
+        <v>21868</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>39742</v>
+        <v>38102</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0384707550230925</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02904319771058508</v>
+        <v>0.02828934023055537</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05141168228684444</v>
+        <v>0.04929040412067678</v>
       </c>
     </row>
     <row r="9">
@@ -4409,19 +4409,19 @@
         <v>13417</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8932</v>
+        <v>8724</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>20248</v>
+        <v>21028</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0433779297828893</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02887708279689764</v>
+        <v>0.02820373317835612</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06546126529208987</v>
+        <v>0.06798187183237307</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>65</v>
@@ -4430,19 +4430,19 @@
         <v>35010</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>27241</v>
+        <v>27193</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>45392</v>
+        <v>44705</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.07549978719053524</v>
+        <v>0.07549978719053523</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05874629531567669</v>
+        <v>0.05864303066616286</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09788926081259007</v>
+        <v>0.09640801534094631</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>87</v>
@@ -4451,19 +4451,19 @@
         <v>48427</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>38370</v>
+        <v>39028</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>59605</v>
+        <v>59540</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06264668202951998</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04963669164353622</v>
+        <v>0.05048773453135191</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07710701670711143</v>
+        <v>0.07702308916324561</v>
       </c>
     </row>
     <row r="10">
@@ -4480,19 +4480,19 @@
         <v>291209</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>284050</v>
+        <v>283744</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>296627</v>
+        <v>297078</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9414728326176238</v>
+        <v>0.9414728326176237</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9183277717248239</v>
+        <v>0.9173376004035837</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9589880645695074</v>
+        <v>0.9604467020568145</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>769</v>
@@ -4501,19 +4501,19 @@
         <v>403643</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>391266</v>
+        <v>390824</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>414818</v>
+        <v>414207</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.8704729800174257</v>
+        <v>0.8704729800174256</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8437817369201416</v>
+        <v>0.8428280472273769</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8945739334983208</v>
+        <v>0.8932555622915723</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1195</v>
@@ -4522,19 +4522,19 @@
         <v>694851</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>680503</v>
+        <v>680234</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>707168</v>
+        <v>706829</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8988825629473873</v>
+        <v>0.8988825629473877</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8803224069457671</v>
+        <v>0.8799737251717638</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9148164374554386</v>
+        <v>0.9143784371612477</v>
       </c>
     </row>
     <row r="11">
@@ -4626,19 +4626,19 @@
         <v>6672</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3638</v>
+        <v>3585</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11664</v>
+        <v>11441</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.009312702217684815</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.005078216534076775</v>
+        <v>0.005004246833234258</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01628131712506798</v>
+        <v>0.0159705405641793</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>47</v>
@@ -4647,19 +4647,19 @@
         <v>25510</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18315</v>
+        <v>18718</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>34252</v>
+        <v>34294</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02826759284800224</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02029536926950113</v>
+        <v>0.02074202059516719</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03795438082822851</v>
+        <v>0.03800159762154692</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>59</v>
@@ -4668,19 +4668,19 @@
         <v>32181</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>24402</v>
+        <v>24096</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>41253</v>
+        <v>41736</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01987936637047489</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01507366404212529</v>
+        <v>0.01488457006199414</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02548293431000347</v>
+        <v>0.02578151997570391</v>
       </c>
     </row>
     <row r="13">
@@ -4697,19 +4697,19 @@
         <v>15310</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10135</v>
+        <v>9533</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23179</v>
+        <v>22428</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02137074787185815</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01414700823392642</v>
+        <v>0.01330747222978109</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0323555659502956</v>
+        <v>0.03130626130258966</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>78</v>
@@ -4718,19 +4718,19 @@
         <v>42399</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33645</v>
+        <v>32620</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>53442</v>
+        <v>52062</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04698307761305073</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03728274944543554</v>
+        <v>0.03614643460750831</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05921955477307701</v>
+        <v>0.05769070952802288</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>103</v>
@@ -4739,19 +4739,19 @@
         <v>57709</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>47773</v>
+        <v>47503</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>71138</v>
+        <v>70415</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0356486929058869</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02951063630029996</v>
+        <v>0.02934420903501487</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04394394849262884</v>
+        <v>0.04349717579770845</v>
       </c>
     </row>
     <row r="14">
@@ -4768,19 +4768,19 @@
         <v>694410</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>685628</v>
+        <v>686049</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>700515</v>
+        <v>700921</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.969316549910457</v>
+        <v>0.9693165499104572</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9570580046396788</v>
+        <v>0.9576467243009044</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9778391412897371</v>
+        <v>0.9784051827411809</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1581</v>
@@ -4789,19 +4789,19 @@
         <v>834530</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>822002</v>
+        <v>821894</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>845745</v>
+        <v>845962</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9247493295389471</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9108666577786397</v>
+        <v>0.9107475678684885</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9371772064895569</v>
+        <v>0.9374173174437235</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2571</v>
@@ -4810,19 +4810,19 @@
         <v>1528940</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1513639</v>
+        <v>1513413</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1541441</v>
+        <v>1540897</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9444719407236383</v>
+        <v>0.9444719407236384</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9350203918996584</v>
+        <v>0.9348806541780545</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9521943870835697</v>
+        <v>0.951858294455422</v>
       </c>
     </row>
     <row r="15">
